--- a/Code/Results/Cases/Case_13_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_13_1/res_bus/vm_pu.xlsx
@@ -433,49 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9965419457814316</v>
+        <v>0.9948908602790468</v>
       </c>
       <c r="D2">
-        <v>1.019151136735203</v>
+        <v>1.016931574871248</v>
       </c>
       <c r="E2">
-        <v>1.003450327451024</v>
+        <v>1.001968753310099</v>
       </c>
       <c r="F2">
-        <v>1.01512423235515</v>
+        <v>1.014408975848768</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04623565358964</v>
+        <v>1.041682039939153</v>
       </c>
       <c r="J2">
-        <v>1.018826580902894</v>
+        <v>1.01722546614255</v>
       </c>
       <c r="K2">
-        <v>1.030349960651664</v>
+        <v>1.028159959846664</v>
       </c>
       <c r="L2">
-        <v>1.014861802115467</v>
+        <v>1.013400728245686</v>
       </c>
       <c r="M2">
-        <v>1.026376808251998</v>
+        <v>1.025671155231228</v>
       </c>
       <c r="N2">
-        <v>1.020273431508816</v>
+        <v>1.018670042981862</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029447778653725</v>
+        <v>1.028889292636004</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03253023336338</v>
+        <v>1.030981673293053</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -486,49 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000758689508925</v>
+        <v>0.9989946345350402</v>
       </c>
       <c r="D3">
-        <v>1.022047928301003</v>
+        <v>1.019641758101586</v>
       </c>
       <c r="E3">
-        <v>1.006792573823085</v>
+        <v>1.005219427954336</v>
       </c>
       <c r="F3">
-        <v>1.018358442132083</v>
+        <v>1.017595275228464</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047210015663159</v>
+        <v>1.042368294363329</v>
       </c>
       <c r="J3">
-        <v>1.021228693229426</v>
+        <v>1.019512744399156</v>
       </c>
       <c r="K3">
-        <v>1.03240626474237</v>
+        <v>1.03002933904805</v>
       </c>
       <c r="L3">
-        <v>1.017339273934035</v>
+        <v>1.015785958005775</v>
       </c>
       <c r="M3">
-        <v>1.028761690709446</v>
+        <v>1.02800786439</v>
       </c>
       <c r="N3">
-        <v>1.02267895511038</v>
+        <v>1.02096056943595</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031335280184357</v>
+        <v>1.03073866922532</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033981558642871</v>
+        <v>1.032300823457532</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -539,49 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003430637525529</v>
+        <v>1.001598351059128</v>
       </c>
       <c r="D4">
-        <v>1.023883678923017</v>
+        <v>1.021363859276659</v>
       </c>
       <c r="E4">
-        <v>1.008916251214829</v>
+        <v>1.007287710717634</v>
       </c>
       <c r="F4">
-        <v>1.020416783855687</v>
+        <v>1.019624779946916</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047811961979347</v>
+        <v>1.042792954569458</v>
       </c>
       <c r="J4">
-        <v>1.022746992499223</v>
+        <v>1.020961259035666</v>
       </c>
       <c r="K4">
-        <v>1.033702147523078</v>
+        <v>1.03121110164448</v>
       </c>
       <c r="L4">
-        <v>1.018908242971192</v>
+        <v>1.017298968085074</v>
       </c>
       <c r="M4">
-        <v>1.030274886215035</v>
+        <v>1.029491983238916</v>
       </c>
       <c r="N4">
-        <v>1.024199410539291</v>
+        <v>1.02241114112939</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032532887428054</v>
+        <v>1.031913264990679</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034898776109782</v>
+        <v>1.033137352467328</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -592,49 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004543928218046</v>
+        <v>1.002684690260577</v>
       </c>
       <c r="D5">
-        <v>1.024650360973909</v>
+        <v>1.022085263049328</v>
       </c>
       <c r="E5">
-        <v>1.0098029299847</v>
+        <v>1.008152474206006</v>
       </c>
       <c r="F5">
-        <v>1.021275472865804</v>
+        <v>1.020472107439145</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048060306945694</v>
+        <v>1.042969144175626</v>
       </c>
       <c r="J5">
-        <v>1.02337992105097</v>
+        <v>1.021566496179652</v>
       </c>
       <c r="K5">
-        <v>1.034242732407473</v>
+        <v>1.031706143382933</v>
       </c>
       <c r="L5">
-        <v>1.019562795081617</v>
+        <v>1.017931334307487</v>
       </c>
       <c r="M5">
-        <v>1.03090538993626</v>
+        <v>1.03011100699532</v>
       </c>
       <c r="N5">
-        <v>1.024833237922181</v>
+        <v>1.023017237779542</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033031894268319</v>
+        <v>1.032403186546732</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035288237304318</v>
+        <v>1.033494629401301</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -645,49 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004733869626131</v>
+        <v>1.002870925358838</v>
       </c>
       <c r="D6">
-        <v>1.024783361412827</v>
+        <v>1.022211798643721</v>
       </c>
       <c r="E6">
-        <v>1.009954848702671</v>
+        <v>1.008301359626635</v>
       </c>
       <c r="F6">
-        <v>1.021420819059379</v>
+        <v>1.020615900521378</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048104052341561</v>
+        <v>1.043001185872466</v>
       </c>
       <c r="J6">
-        <v>1.023489385998096</v>
+        <v>1.021672107796836</v>
       </c>
       <c r="K6">
-        <v>1.034337769372891</v>
+        <v>1.03179465601351</v>
       </c>
       <c r="L6">
-        <v>1.019675761424216</v>
+        <v>1.018041213428908</v>
       </c>
       <c r="M6">
-        <v>1.031012462534905</v>
+        <v>1.030216502135477</v>
       </c>
       <c r="N6">
-        <v>1.024942858322087</v>
+        <v>1.023122999377337</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033116635936106</v>
+        <v>1.032486679823849</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03536423698079</v>
+        <v>1.033566037533588</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -698,49 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003455662488705</v>
+        <v>1.001625106879696</v>
       </c>
       <c r="D7">
-        <v>1.023906743848574</v>
+        <v>1.021389201001708</v>
       </c>
       <c r="E7">
-        <v>1.008937696769173</v>
+        <v>1.00731051324058</v>
       </c>
       <c r="F7">
-        <v>1.020432653630997</v>
+        <v>1.019641401716553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047821808192686</v>
+        <v>1.042802658909945</v>
       </c>
       <c r="J7">
-        <v>1.022765324752749</v>
+        <v>1.020981257908379</v>
       </c>
       <c r="K7">
-        <v>1.033722042309833</v>
+        <v>1.031233235949125</v>
       </c>
       <c r="L7">
-        <v>1.01892646969556</v>
+        <v>1.017318528222087</v>
       </c>
       <c r="M7">
-        <v>1.030287652971014</v>
+        <v>1.029505489950748</v>
       </c>
       <c r="N7">
-        <v>1.02421776882672</v>
+        <v>1.022431168402796</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032542991572676</v>
+        <v>1.031923954776778</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034933087125513</v>
+        <v>1.033173295462308</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -751,49 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9979914172541663</v>
+        <v>0.996304042213937</v>
       </c>
       <c r="D8">
-        <v>1.020153790085605</v>
+        <v>1.017873660376917</v>
       </c>
       <c r="E8">
-        <v>1.004599936463662</v>
+        <v>1.003088907824786</v>
       </c>
       <c r="F8">
-        <v>1.016229909140058</v>
+        <v>1.015499266172188</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046578796604326</v>
+        <v>1.041927195146028</v>
       </c>
       <c r="J8">
-        <v>1.01965804509715</v>
+        <v>1.018020002287626</v>
       </c>
       <c r="K8">
-        <v>1.031067513871998</v>
+        <v>1.028816844377078</v>
       </c>
       <c r="L8">
-        <v>1.015717957134274</v>
+        <v>1.014227199833352</v>
       </c>
       <c r="M8">
-        <v>1.027194433754841</v>
+        <v>1.026473304408193</v>
       </c>
       <c r="N8">
-        <v>1.0211060764776</v>
+        <v>1.019465707459401</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030094884242435</v>
+        <v>1.02952415008229</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03306069682541</v>
+        <v>1.031469289733111</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -804,49 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9878925357796882</v>
+        <v>0.9864931285211993</v>
       </c>
       <c r="D9">
-        <v>1.013213035834047</v>
+        <v>1.011402710867567</v>
       </c>
       <c r="E9">
-        <v>0.9966290554375548</v>
+        <v>0.9953508859415996</v>
       </c>
       <c r="F9">
-        <v>1.008541506085888</v>
+        <v>1.007933628125217</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044154603285711</v>
+        <v>1.040221016266933</v>
       </c>
       <c r="J9">
-        <v>1.013880205589475</v>
+        <v>1.01253203388078</v>
       </c>
       <c r="K9">
-        <v>1.026095317401418</v>
+        <v>1.024313456880191</v>
       </c>
       <c r="L9">
-        <v>1.009777061655617</v>
+        <v>1.008519844831409</v>
       </c>
       <c r="M9">
-        <v>1.021497506863243</v>
+        <v>1.020899285911142</v>
       </c>
       <c r="N9">
-        <v>1.015320031775097</v>
+        <v>1.013969945507939</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025586067501517</v>
+        <v>1.02511260549407</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029541752623534</v>
+        <v>1.028281814746882</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -857,49 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9809456340286865</v>
+        <v>0.9797748002704288</v>
       </c>
       <c r="D10">
-        <v>1.008450915404839</v>
+        <v>1.007003681229411</v>
       </c>
       <c r="E10">
-        <v>0.9911950500727045</v>
+        <v>0.990101016926468</v>
       </c>
       <c r="F10">
-        <v>1.003548524086912</v>
+        <v>1.003039362543514</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042425225278415</v>
+        <v>1.039020076332344</v>
       </c>
       <c r="J10">
-        <v>1.009936185445665</v>
+        <v>1.00881449660466</v>
       </c>
       <c r="K10">
-        <v>1.022669244164364</v>
+        <v>1.02124762306301</v>
       </c>
       <c r="L10">
-        <v>1.005725121482776</v>
+        <v>1.004651330677392</v>
       </c>
       <c r="M10">
-        <v>1.017854003054644</v>
+        <v>1.017353956347504</v>
       </c>
       <c r="N10">
-        <v>1.011370410670298</v>
+        <v>1.010247128902479</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022754849967467</v>
+        <v>1.02235911199572</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027136237218653</v>
+        <v>1.026131038453933</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -910,49 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9788093521063566</v>
+        <v>0.9778077899873483</v>
       </c>
       <c r="D11">
-        <v>1.007024249181742</v>
+        <v>1.005818971787065</v>
       </c>
       <c r="E11">
-        <v>0.9896412512355445</v>
+        <v>0.9886855533662301</v>
       </c>
       <c r="F11">
-        <v>1.003962324932999</v>
+        <v>1.003530124232857</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041986962784103</v>
+        <v>1.038813593529954</v>
       </c>
       <c r="J11">
-        <v>1.00909105317253</v>
+        <v>1.008133847692945</v>
       </c>
       <c r="K11">
-        <v>1.021814903159303</v>
+        <v>1.020631978863784</v>
       </c>
       <c r="L11">
-        <v>1.004761198549546</v>
+        <v>1.00382404514201</v>
       </c>
       <c r="M11">
-        <v>1.018809902471057</v>
+        <v>1.018385773234083</v>
       </c>
       <c r="N11">
-        <v>1.010524078212397</v>
+        <v>1.009565513391238</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023954996418782</v>
+        <v>1.02361951489166</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02656538407692</v>
+        <v>1.025728999552745</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -963,49 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9783210038107645</v>
+        <v>0.9774212305430461</v>
       </c>
       <c r="D12">
-        <v>1.00671016856212</v>
+        <v>1.005637623120593</v>
       </c>
       <c r="E12">
-        <v>0.9893409120026595</v>
+        <v>0.9884711514352562</v>
       </c>
       <c r="F12">
-        <v>1.004986342546891</v>
+        <v>1.004600268189964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041931552177484</v>
+        <v>1.038851539203458</v>
       </c>
       <c r="J12">
-        <v>1.009072064803313</v>
+        <v>1.008212886614216</v>
       </c>
       <c r="K12">
-        <v>1.021709931656669</v>
+        <v>1.020657606366125</v>
       </c>
       <c r="L12">
-        <v>1.00467521268005</v>
+        <v>1.003822610018793</v>
       </c>
       <c r="M12">
-        <v>1.020018631578249</v>
+        <v>1.019639861847299</v>
       </c>
       <c r="N12">
-        <v>1.010505062877517</v>
+        <v>1.009644664556843</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025242126806068</v>
+        <v>1.024942628566012</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026491164235967</v>
+        <v>1.025747119452146</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1016,49 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9790776718135854</v>
+        <v>0.9782346779006832</v>
       </c>
       <c r="D13">
-        <v>1.007243923209274</v>
+        <v>1.006229981133439</v>
       </c>
       <c r="E13">
-        <v>0.9899918461863296</v>
+        <v>0.9891734526217352</v>
       </c>
       <c r="F13">
-        <v>1.006573221451993</v>
+        <v>1.006213151637758</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042179201978626</v>
+        <v>1.039091423448593</v>
       </c>
       <c r="J13">
-        <v>1.009698707771767</v>
+        <v>1.008893520217354</v>
       </c>
       <c r="K13">
-        <v>1.022190072346114</v>
+        <v>1.021195153651442</v>
       </c>
       <c r="L13">
-        <v>1.005268643744872</v>
+        <v>1.004466311447403</v>
       </c>
       <c r="M13">
-        <v>1.021531948559398</v>
+        <v>1.021178640329877</v>
       </c>
       <c r="N13">
-        <v>1.011132595750864</v>
+        <v>1.010326264737766</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026718595082089</v>
+        <v>1.026439301297084</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026828126026719</v>
+        <v>1.026124668728138</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1069,49 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9801585894026571</v>
+        <v>0.9793365935787013</v>
       </c>
       <c r="D14">
-        <v>1.007993784435736</v>
+        <v>1.006989000590672</v>
       </c>
       <c r="E14">
-        <v>0.9908674282469805</v>
+        <v>0.9900709298926405</v>
       </c>
       <c r="F14">
-        <v>1.007910270446861</v>
+        <v>1.007560074125852</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042485572980742</v>
+        <v>1.03934808048118</v>
       </c>
       <c r="J14">
-        <v>1.010417612454453</v>
+        <v>1.009631920054979</v>
       </c>
       <c r="K14">
-        <v>1.02278328119306</v>
+        <v>1.021797104872949</v>
       </c>
       <c r="L14">
-        <v>1.005980849341562</v>
+        <v>1.005199773250642</v>
       </c>
       <c r="M14">
-        <v>1.022701311951209</v>
+        <v>1.022357596799938</v>
       </c>
       <c r="N14">
-        <v>1.011852521360659</v>
+        <v>1.011065713187856</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027817929151773</v>
+        <v>1.027546255953524</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027248993304331</v>
+        <v>1.026551719434499</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1122,49 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9807066164030492</v>
+        <v>0.9798797926291615</v>
       </c>
       <c r="D15">
-        <v>1.008372656798901</v>
+        <v>1.00735423726058</v>
       </c>
       <c r="E15">
-        <v>0.9913007716196004</v>
+        <v>0.9905017447735108</v>
       </c>
       <c r="F15">
-        <v>1.008408517367875</v>
+        <v>1.008056451410113</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042632119974928</v>
+        <v>1.039459918637634</v>
       </c>
       <c r="J15">
-        <v>1.010748550027167</v>
+        <v>1.009957910918053</v>
       </c>
       <c r="K15">
-        <v>1.023067325661603</v>
+        <v>1.022067618965873</v>
       </c>
       <c r="L15">
-        <v>1.006315777037109</v>
+        <v>1.005532097356864</v>
       </c>
       <c r="M15">
-        <v>1.02310252821159</v>
+        <v>1.022756925083355</v>
       </c>
       <c r="N15">
-        <v>1.012183928902685</v>
+        <v>1.011392166995348</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028172899301284</v>
+        <v>1.027899741080654</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027455760172196</v>
+        <v>1.026748925731614</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1175,49 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9834882876565243</v>
+        <v>0.9825463029161536</v>
       </c>
       <c r="D16">
-        <v>1.010279116390844</v>
+        <v>1.009087756256881</v>
       </c>
       <c r="E16">
-        <v>0.9934574179198945</v>
+        <v>0.9925646161488502</v>
       </c>
       <c r="F16">
-        <v>1.01025491878917</v>
+        <v>1.009853678583058</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04333088162827</v>
+        <v>1.039930260858728</v>
       </c>
       <c r="J16">
-        <v>1.012293747929101</v>
+        <v>1.011390872673173</v>
       </c>
       <c r="K16">
-        <v>1.024429085679848</v>
+        <v>1.023258642881792</v>
       </c>
       <c r="L16">
-        <v>1.00790878568229</v>
+        <v>1.007032352328974</v>
       </c>
       <c r="M16">
-        <v>1.024405312292209</v>
+        <v>1.024011110165804</v>
       </c>
       <c r="N16">
-        <v>1.013731321162876</v>
+        <v>1.012827163720523</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029163563783365</v>
+        <v>1.028851984756635</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028421788146462</v>
+        <v>1.027594241661279</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1228,49 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9850656019354072</v>
+        <v>0.9840249667104871</v>
       </c>
       <c r="D17">
-        <v>1.011356001436675</v>
+        <v>1.010028074471012</v>
       </c>
       <c r="E17">
-        <v>0.994663292644118</v>
+        <v>0.9936873727051618</v>
       </c>
       <c r="F17">
-        <v>1.010977474234435</v>
+        <v>1.010533506434469</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043706158139549</v>
+        <v>1.040156913761608</v>
       </c>
       <c r="J17">
-        <v>1.013110036306088</v>
+        <v>1.012111192642684</v>
       </c>
       <c r="K17">
-        <v>1.025167806049617</v>
+        <v>1.023862530517226</v>
       </c>
       <c r="L17">
-        <v>1.008765545209506</v>
+        <v>1.007806997925699</v>
       </c>
       <c r="M17">
-        <v>1.02479572783493</v>
+        <v>1.024359331889488</v>
       </c>
       <c r="N17">
-        <v>1.014548768762988</v>
+        <v>1.013548506627013</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029341955692794</v>
+        <v>1.02899699163756</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028946711996503</v>
+        <v>1.028023838159325</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1281,49 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9857097099411911</v>
+        <v>0.984574858021695</v>
       </c>
       <c r="D18">
-        <v>1.011782934003529</v>
+        <v>1.010334789897646</v>
       </c>
       <c r="E18">
-        <v>0.9951191367144538</v>
+        <v>0.9940619004011004</v>
       </c>
       <c r="F18">
-        <v>1.01062807494972</v>
+        <v>1.010142285242734</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043822176583153</v>
+        <v>1.040179574818493</v>
       </c>
       <c r="J18">
-        <v>1.013323674116837</v>
+        <v>1.012233546795606</v>
       </c>
       <c r="K18">
-        <v>1.025401331690427</v>
+        <v>1.023977484454585</v>
       </c>
       <c r="L18">
-        <v>1.009022655452827</v>
+        <v>1.007983926494488</v>
       </c>
       <c r="M18">
-        <v>1.024265841538777</v>
+        <v>1.023788216395104</v>
       </c>
       <c r="N18">
-        <v>1.014762709963933</v>
+        <v>1.013671034536867</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028682852945997</v>
+        <v>1.02830521768887</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029100074218453</v>
+        <v>1.028093350488934</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1334,49 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9854765676822593</v>
+        <v>0.9842708858383016</v>
       </c>
       <c r="D19">
-        <v>1.011605886599829</v>
+        <v>1.010072904829335</v>
       </c>
       <c r="E19">
-        <v>0.9948681904876147</v>
+        <v>0.9937492360859378</v>
       </c>
       <c r="F19">
-        <v>1.009198257478549</v>
+        <v>1.008679433796243</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043698250294269</v>
+        <v>1.040023750860249</v>
       </c>
       <c r="J19">
-        <v>1.012961798363457</v>
+        <v>1.011803389928291</v>
       </c>
       <c r="K19">
-        <v>1.02516376449289</v>
+        <v>1.023656379657226</v>
       </c>
       <c r="L19">
-        <v>1.008711074927215</v>
+        <v>1.007611617239714</v>
       </c>
       <c r="M19">
-        <v>1.022796381627491</v>
+        <v>1.022286263112784</v>
       </c>
       <c r="N19">
-        <v>1.014400320305475</v>
+        <v>1.01324026679746</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027191194268974</v>
+        <v>1.02678773290967</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028938562085439</v>
+        <v>1.027872782314928</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1387,49 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9827773403463462</v>
+        <v>0.9815537158458099</v>
       </c>
       <c r="D20">
-        <v>1.009718823573317</v>
+        <v>1.008186153782641</v>
       </c>
       <c r="E20">
-        <v>0.992630169089305</v>
+        <v>0.9914935994544378</v>
       </c>
       <c r="F20">
-        <v>1.00486530043932</v>
+        <v>1.004333357191724</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042896088892368</v>
+        <v>1.0393558201411</v>
       </c>
       <c r="J20">
-        <v>1.010988699204327</v>
+        <v>1.009814708509776</v>
       </c>
       <c r="K20">
-        <v>1.023592905123163</v>
+        <v>1.02208657079572</v>
       </c>
       <c r="L20">
-        <v>1.006803857906452</v>
+        <v>1.005687691175774</v>
       </c>
       <c r="M20">
-        <v>1.018823135510778</v>
+        <v>1.018300435314862</v>
       </c>
       <c r="N20">
-        <v>1.012424419119222</v>
+        <v>1.011248761223225</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023511078631529</v>
+        <v>1.023097407582149</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02783185205564</v>
+        <v>1.02676681769937</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1440,49 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9773551819570923</v>
+        <v>0.9763013802346538</v>
       </c>
       <c r="D21">
-        <v>1.005995887343364</v>
+        <v>1.004733522829196</v>
       </c>
       <c r="E21">
-        <v>0.9883807082426688</v>
+        <v>0.9873805697235419</v>
       </c>
       <c r="F21">
-        <v>1.000606367784193</v>
+        <v>1.000147140157305</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041497268741536</v>
+        <v>1.038367624705228</v>
       </c>
       <c r="J21">
-        <v>1.007831161278016</v>
+        <v>1.00682446880273</v>
       </c>
       <c r="K21">
-        <v>1.020864549261793</v>
+        <v>1.019625768687875</v>
       </c>
       <c r="L21">
-        <v>1.003585606781055</v>
+        <v>1.002605031130173</v>
       </c>
       <c r="M21">
-        <v>1.015576261441367</v>
+        <v>1.01512572545965</v>
       </c>
       <c r="N21">
-        <v>1.009262397126881</v>
+        <v>1.008254275032811</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.02089968290621</v>
+        <v>1.020543103735575</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025906037969641</v>
+        <v>1.025030173782759</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1493,49 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9739143081919217</v>
+        <v>0.9729739857136331</v>
       </c>
       <c r="D22">
-        <v>1.003633354959796</v>
+        <v>1.002549564100072</v>
       </c>
       <c r="E22">
-        <v>0.9856972876218609</v>
+        <v>0.9847881849332675</v>
       </c>
       <c r="F22">
-        <v>0.998041119083427</v>
+        <v>0.9976309264642282</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040597757299131</v>
+        <v>1.037734959850951</v>
       </c>
       <c r="J22">
-        <v>1.005843713736808</v>
+        <v>1.004947976895485</v>
       </c>
       <c r="K22">
-        <v>1.019133176374479</v>
+        <v>1.018070682263942</v>
       </c>
       <c r="L22">
-        <v>1.001557510393331</v>
+        <v>1.000667136392896</v>
       </c>
       <c r="M22">
-        <v>1.013651481924546</v>
+        <v>1.013249461708881</v>
       </c>
       <c r="N22">
-        <v>1.007272127182201</v>
+        <v>1.00637511829182</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019376304285691</v>
+        <v>1.019058122467593</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024668188107299</v>
+        <v>1.023916948777591</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1546,49 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9757375158327574</v>
+        <v>0.9747332332366703</v>
       </c>
       <c r="D23">
-        <v>1.004880503507126</v>
+        <v>1.00369703871568</v>
       </c>
       <c r="E23">
-        <v>0.9871166169311361</v>
+        <v>0.9861562477849556</v>
       </c>
       <c r="F23">
-        <v>0.9994019041139025</v>
+        <v>0.9989640470406284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041072792475324</v>
+        <v>1.038065737084477</v>
       </c>
       <c r="J23">
-        <v>1.006893727239763</v>
+        <v>1.005935609786462</v>
       </c>
       <c r="K23">
-        <v>1.020045307086762</v>
+        <v>1.018884488117875</v>
       </c>
       <c r="L23">
-        <v>1.002628848018751</v>
+        <v>1.001687731193693</v>
       </c>
       <c r="M23">
-        <v>1.014672132263515</v>
+        <v>1.0142427662791</v>
       </c>
       <c r="N23">
-        <v>1.008323631824769</v>
+        <v>1.007364153734786</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020184104724026</v>
+        <v>1.019844280304594</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025303361206065</v>
+        <v>1.024482591430766</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1599,49 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9827584216314152</v>
+        <v>0.9815230830104708</v>
       </c>
       <c r="D24">
-        <v>1.009695545076071</v>
+        <v>1.008147023617372</v>
       </c>
       <c r="E24">
-        <v>0.9926024433120246</v>
+        <v>0.9914564293671911</v>
       </c>
       <c r="F24">
-        <v>1.004663068593595</v>
+        <v>1.0041256094947</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04287602852518</v>
+        <v>1.039328636102147</v>
       </c>
       <c r="J24">
-        <v>1.01093671573132</v>
+        <v>1.009751418926534</v>
       </c>
       <c r="K24">
-        <v>1.023554508868084</v>
+        <v>1.022032563153562</v>
       </c>
       <c r="L24">
-        <v>1.006760725809348</v>
+        <v>1.005635259462022</v>
       </c>
       <c r="M24">
-        <v>1.018608787407288</v>
+        <v>1.018080660105773</v>
       </c>
       <c r="N24">
-        <v>1.012372361823721</v>
+        <v>1.011185381761516</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02329978727201</v>
+        <v>1.022881799497798</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027776999578605</v>
+        <v>1.026700886806765</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1652,49 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9905758006498974</v>
+        <v>0.9891012525657455</v>
       </c>
       <c r="D25">
-        <v>1.015064612660737</v>
+        <v>1.013131588979263</v>
       </c>
       <c r="E25">
-        <v>0.9987436053724044</v>
+        <v>0.9974047152538577</v>
       </c>
       <c r="F25">
-        <v>1.010570351469051</v>
+        <v>1.009930365035634</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044818269076671</v>
+        <v>1.040692327303281</v>
       </c>
       <c r="J25">
-        <v>1.015424543074733</v>
+        <v>1.014001053507381</v>
       </c>
       <c r="K25">
-        <v>1.027433485906839</v>
+        <v>1.025529417545155</v>
       </c>
       <c r="L25">
-        <v>1.011361456609465</v>
+        <v>1.010043453718744</v>
       </c>
       <c r="M25">
-        <v>1.023006762874746</v>
+        <v>1.022376456218115</v>
       </c>
       <c r="N25">
-        <v>1.016866562396722</v>
+        <v>1.015441051310908</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026780566801188</v>
+        <v>1.026281711423915</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030516794003226</v>
+        <v>1.029170500175756</v>
       </c>
     </row>
   </sheetData>
